--- a/test_speeches/predictions/Coding_Differneces_150_AI.xlsx
+++ b/test_speeches/predictions/Coding_Differneces_150_AI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,64 +436,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sentence</t>
+          <t>sentence</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Simile</t>
+          <t>label</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Metaphor/Similie</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Rhetorical questions</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Stories / anecdotes</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Stories/Anecdotes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Contrasts</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lists / Repetition </t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Moral conviction</t>
+          <t>Lists</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment of the collective</t>
+          <t>Repetition</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ambitious goals / Setting high expectations</t>
+          <t>Moral_conviction</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Confidence in goals</t>
+          <t>Sentiment_of_the_collective</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Setting_high_expectations</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fellow Nevadans.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>0</v>
       </c>
@@ -519,16 +520,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>I wanna start by joining the rest of our state in extending my prayers to Lvm pd Officer Shay Mcon.</t>
+          <t>Fellow Nevadans.</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -556,29 +560,32 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Early this week, I had the opportunity to visit him at umc.</t>
+          <t>I wanna start by joining the rest of our state in extending my prayers to Lvm pd Officer Shay Mcon.</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -587,26 +594,29 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>I understand his condition is stabilizing and I hope he continues to improve.</t>
+          <t>Early this week, I had the opportunity to visit him at umc.</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -615,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -630,16 +640,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kathy and I are praying for his recovery.</t>
+          <t>I understand his condition is stabilizing and I hope he continues to improve.</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -667,20 +680,23 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>We are living in historically trying times.</t>
+          <t>Kathy and I are praying for his recovery.</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -698,26 +714,29 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Over the past few months, Nevada has been faced with three major crises, the magnitude of which are either unprecedented or seismic in scope.</t>
+          <t>We are living in historically trying times.</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -735,22 +754,25 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>First, we are facing a public health crisis as a result of the Covid 19 global pandemic, something that we have havent experienced in over a hundred years.</t>
+          <t>Over the past few months, Nevada has been faced with three major crises, the magnitude of which are either unprecedented or seismic in scope.</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -766,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -778,16 +800,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>It left us with incredibly difficult decision to shut down the majority of our economy in order to save thousands of lives and protect the health of our public.</t>
+          <t>First, we are facing a public health crisis as a result of the Covid 19 global pandemic, something that we have havent experienced in over a hundred years.</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -806,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -815,20 +840,23 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>While weve begun our reopening, the virus still lives with us and we continue to focus on an effective response.</t>
+          <t>It left us with incredibly difficult decision to shut down the majority of our economy in order to save thousands of lives and protect the health of our public.</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -846,22 +874,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Secondly, that health crisis has resulted in an unprecedented economic crisis with record unemployment in a global recession and a budget shortfall that will lead to more difficult decisions on how to recover.</t>
+          <t>While weve begun our reopening, the virus still lives with us and we continue to focus on an effective response.</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -889,20 +920,23 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>And lastly, we are facing a crisis of faith in our criminal and social justice systems.</t>
+          <t>Secondly, that health crisis has resulted in an unprecedented economic crisis with record unemployment in a global recession and a budget shortfall that will lead to more difficult decisions on how to recover.</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -920,26 +954,29 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>It is safe to say that we have never before been so greatly challenged over such a short period of time.</t>
+          <t>And lastly, we are facing a crisis of faith in our criminal and social justice systems.</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -957,26 +994,29 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Our lives in our state will be forever changed as a result of the last 90 days.</t>
+          <t>It is safe to say that we have never before been so greatly challenged over such a short period of time.</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -994,26 +1034,29 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ive talked a lot about the pandemic and well be talking a lot about our economic recovery and budget situation in the coming weeks.</t>
+          <t>Our lives in our state will be forever changed as a result of the last 90 days.</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1025,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1037,20 +1080,23 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>But today I wanted to address Nevadas about the crisis we are facing that has emerged due to events in the last couple of weeks, but stem from generations of inequality.</t>
+          <t>Ive talked a lot about the pandemic and well be talking a lot about our economic recovery and budget situation in the coming weeks.</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1065,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1074,16 +1120,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>In many ways, the systemic racism and injustices our black and minority communities face can be the most difficult to discuss.</t>
+          <t>But today I wanted to address Nevadas about the crisis we are facing that has emerged due to events in the last couple of weeks, but stem from generations of inequality.</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1102,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1111,20 +1160,23 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>That kamaka is all uncomfortable, would be easier to just tuck them away as so often has been done throughout history.</t>
+          <t>In many ways, the systemic racism and injustices our black and minority communities face can be the most difficult to discuss.</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1133,31 +1185,34 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>But that would be a disservice to our state, our communities, and all of those who are raising their voices in our streets begging for acknowledgement, change and justice because they live with the additional fear that what should be routine or minor police encounters could end tragically.</t>
+          <t>That kamaka is all uncomfortable, would be easier to just tuck them away as so often has been done throughout history.</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1173,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1185,20 +1240,23 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>The protests over the past few days were ignited by the deaths of George Floyd and Brianna Taylor.</t>
+          <t>But that would be a disservice to our state, our communities, and all of those who are raising their voices in our streets begging for acknowledgement, change and justice because they live with the additional fear that what should be routine or minor police encounters could end tragically.</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1213,25 +1271,28 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>But the anger and grief goes beyond the protests that grew out of a longer history of these incidents.</t>
+          <t>The protests over the past few days were ignited by the deaths of George Floyd and Brianna Taylor.</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1250,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1259,20 +1320,23 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>The list is too long to name them all, but many of these names are recognizable to you.</t>
+          <t>But the anger and grief goes beyond the protests that grew out of a longer history of these incidents.</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1296,16 +1360,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">The names Philandro Castile, Michael Brown, Eric Garner, Tamir Rice, Sandra Bland and Sean Bell are all too familiar to you because over the past few years, their names have been rallying cries as victims of police violence. </t>
+          <t>The list is too long to name them all, but many of these names are recognizable to you.</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1321,32 +1388,35 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>But these moments of rallying together were brief, and after each rally, we allowed ourselves to drift back to the status quo.</t>
+          <t xml:space="preserve">The names Philandro Castile, Michael Brown, Eric Garner, Tamir Rice, Sandra Bland and Sean Bell are all too familiar to you because over the past few years, their names have been rallying cries as victims of police violence. </t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1361,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -1370,20 +1440,23 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>And for each opportunity for change that we squander more lives are lost.</t>
+          <t>But these moments of rallying together were brief, and after each rally, we allowed ourselves to drift back to the status quo.</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1395,38 +1468,41 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>George Floyd died because the officers who were arresting him did not listen to his cries that he could not breathe.</t>
+          <t>And for each opportunity for change that we squander more lives are lost.</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1438,29 +1514,32 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>And because Mr. Floyd could no longer speak for himself, protestors across the country are speaking for him.</t>
+          <t>George Floyd died because the officers who were arresting him did not listen to his cries that he could not breathe.</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1481,20 +1560,23 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>I am asking all the Nevadanss to listen to our neighbors who are crying out.</t>
+          <t>And because Mr. Floyd could no longer speak for himself, protestors across the country are speaking for him.</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1506,32 +1588,35 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>In the United States our attention span for these issues is fleeting and ebbs and flows with the news cycle.</t>
+          <t>I am asking all the Nevadanss to listen to our neighbors who are crying out.</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1540,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1549,26 +1634,29 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>But for communities of color, specifically African Americans, these issues persist even when the country does not focus on it.</t>
+          <t>In the United States our attention span for these issues is fleeting and ebbs and flows with the news cycle.</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1577,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1592,20 +1680,23 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>These communities have tried for years to keep us focused on this topic, but have been criticized at every stage.</t>
+          <t>But for communities of color, specifically African Americans, these issues persist even when the country does not focus on it.</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1623,22 +1714,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Conversations, town halls, protests and community meetings have not much changed landscape nationally of police relationships in minority communities.</t>
+          <t>These communities have tried for years to keep us focused on this topic, but have been criticized at every stage.</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1654,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1666,20 +1760,23 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>And when the community united under the banner Black Lives Matter, they were told that all lives matter, effectively under undermining their plea.</t>
+          <t>Conversations, town halls, protests and community meetings have not much changed landscape nationally of police relationships in minority communities.</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1694,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1703,20 +1800,23 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>The statement that Black Lives matter should not be controversial.</t>
+          <t>And when the community united under the banner Black Lives Matter, they were told that all lives matter, effectively under undermining their plea.</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1725,35 +1825,38 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>It should not be subject to debate.</t>
+          <t>The statement that Black Lives matter should not be controversial.</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1765,32 +1868,35 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>It should not invite any connotation that the fact that Black Lives matter diminishes the value of any other lives.</t>
+          <t>It should not be subject to debate.</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1805,29 +1911,32 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>This declaration is true in the absolute period.</t>
+          <t>It should not invite any connotation that the fact that Black Lives matter diminishes the value of any other lives.</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1842,29 +1951,32 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>As a white man, I cannot claim to understand what is like to live in the fear of police encounters, but as governor of Nevada, it is my duty to speak on behalf of all Nevadans, but particularly those who might not otherwise have a voice that is being heard.</t>
+          <t>This declaration is true in the absolute period.</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1873,35 +1985,38 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Heres what I can commit to you.</t>
+          <t>As a white man, I cannot claim to understand what is like to live in the fear of police encounters, but as governor of Nevada, it is my duty to speak on behalf of all Nevadans, but particularly those who might not otherwise have a voice that is being heard.</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1913,28 +2028,31 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>I will no longer be party to a system that dictates how minority communities should express their first amendment right, to protest or their human right to grieve.</t>
+          <t>Heres what I can commit to you.</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1953,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -1962,20 +2080,23 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>To our community and legislative leaders: Over the past few days, Ive had the opportunity to speak to many of you individually and we have scheduled a few more group meetings as well in the days to come.</t>
+          <t>I will no longer be party to a system that dictates how minority communities should express their first amendment right, to protest or their human right to grieve.</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1993,22 +2114,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>I look forward to meaningful, meaningful dialogue that leads to real change.</t>
+          <t>To our community and legislative leaders: Over the past few days, Ive had the opportunity to speak to many of you individually and we have scheduled a few more group meetings as well in the days to come.</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -2024,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2036,20 +2160,23 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>I also look forward to signing legislation next session that comes from these conversations.</t>
+          <t>I look forward to meaningful, meaningful dialogue that leads to real change.</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -2064,29 +2191,32 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>For those who will be out on our streets asking to be seen and to be heard, I thank you.</t>
+          <t>I also look forward to signing legislation next session that comes from these conversations.</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -2101,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2110,20 +2240,23 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Please do so safely and lawfully.</t>
+          <t>For those who will be out on our streets asking to be seen and to be heard, I thank you.</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2147,16 +2280,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>We know that at least a few instances outside agitators have co-opted your events to advance their own agendas.</t>
+          <t>Please do so safely and lawfully.</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2184,20 +2320,23 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Know that we are aware of this.</t>
+          <t>We know that at least a few instances outside agitators have co-opted your events to advance their own agendas.</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -2215,22 +2354,25 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
       </c>
       <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Here in Nevada just yesterday, the US attorney announced the arrest of three men who sought to undermine the protest by throwing tear gas and Molotov cocktails at the police under the guise of protestors.</t>
+          <t>Know that we are aware of this.</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2240,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2258,20 +2400,23 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>I want to thank the US Attorneys office for the diligent work so far in this case.</t>
+          <t>Here in Nevada just yesterday, the US attorney announced the arrest of three men who sought to undermine the protest by throwing tear gas and Molotov cocktails at the police under the guise of protestors.</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -2289,22 +2434,25 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>For those of you in Las Vegas, volunteers from our legal community will be present to observe your events.</t>
+          <t>I want to thank the US Attorneys office for the diligent work so far in this case.</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2332,16 +2480,19 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>They will be wearing red t-shirts that say legal observer on them.</t>
+          <t>For those of you in Las Vegas, volunteers from our legal community will be present to observe your events.</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2369,16 +2520,19 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>They can help.</t>
+          <t>They will be wearing red t-shirts that say legal observer on them.</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2394,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2406,20 +2560,23 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>They can help you to understand your rights and what conduct is lawful.</t>
+          <t>They can help.</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -2443,20 +2600,23 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>But as you protest, know that I see you and Im listening.</t>
+          <t>They can help you to understand your rights and what conduct is lawful.</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -2471,29 +2631,32 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
       </c>
       <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Please be safe out there.</t>
+          <t>But as you protest, know that I see you and Im listening.</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -2511,26 +2674,29 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
       </c>
       <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>To our law enforcement officers, I ask that you be patient, compassionate, and sympathetic with our fellow Nevadas.</t>
+          <t>Please be safe out there.</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -2542,32 +2708,35 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Law enforcement needs to play a critical role in helping our community to heal and in forging stronger partnerships with those you serve.</t>
+          <t>To our law enforcement officers, I ask that you be patient, compassionate, and sympathetic with our fellow Nevadas.</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -2585,26 +2754,29 @@
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>And for those of you who have already begun this important work, thank you.</t>
+          <t>Law enforcement needs to play a critical role in helping our community to heal and in forging stronger partnerships with those you serve.</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -2619,29 +2791,32 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>There is no doubt we have much more to do.</t>
+          <t>And for those of you who have already begun this important work, thank you.</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -2659,26 +2834,29 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>As law enforcement officers, I call on you to weed out the bad officers, the ones who tarnish the reputation of your profession through their bad acts.</t>
+          <t>There is no doubt we have much more to do.</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -2693,29 +2871,32 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>And while youre out there, please be safe.</t>
+          <t>As law enforcement officers, I call on you to weed out the bad officers, the ones who tarnish the reputation of your profession through their bad acts.</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -2733,26 +2914,29 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Im not saying thisll be easy.</t>
+          <t>And while youre out there, please be safe.</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -2764,28 +2948,31 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
       </c>
       <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>If it was easy, it wouldve been done a long time ago.</t>
+          <t>Im not saying thisll be easy.</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2801,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2813,20 +3000,23 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>It wouldve been solved a long time ago as well.</t>
+          <t>If it was easy, it wouldve been done a long time ago.</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -2838,10 +3028,10 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -2850,16 +3040,19 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>We have to challenge ourselves not to get defensive and to really listen.</t>
+          <t>It wouldve been solved a long time ago as well.</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2878,29 +3071,32 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>I call on all Nevadans to seize this moment, to really reflect and ask themselves what can we do to fully respect and understand the very deep and very real emotional harm thats been done to our black community members.</t>
+          <t>We have to challenge ourselves not to get defensive and to really listen.</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -2915,29 +3111,32 @@
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>For me, it will start with listening and it will end with action, but it will take all of us.</t>
+          <t>I call on all Nevadans to seize this moment, to really reflect and ask themselves what can we do to fully respect and understand the very deep and very real emotional harm thats been done to our black community members.</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -2946,35 +3145,38 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Navadens coming together when we need each other most.</t>
+          <t>For me, it will start with listening and it will end with action, but it will take all of us.</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -2992,26 +3194,29 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>We band together to mourn with the each other, to support each other and to cheer for each other.</t>
+          <t>Navadens coming together when we need each other most.</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -3023,10 +3228,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -3035,20 +3240,23 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>We see the true spirit of Nevada when we came together to cry as we did in the a aftermath of one October.</t>
+          <t>We band together to mourn with the each other, to support each other and to cheer for each other.</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -3072,20 +3280,23 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Im calling on Nevadans to come together.</t>
+          <t>We see the true spirit of Nevada when we came together to cry as we did in the a aftermath of one October.</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -3097,32 +3308,35 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Once again, all Nevadans, lets love one another.</t>
+          <t>Im calling on Nevadans to come together.</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -3137,29 +3351,32 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>As we work through these hard times, there is no doubt that if we do that, if we do it together, we will come out stronger.</t>
+          <t>Once again, all Nevadans, lets love one another.</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -3174,52 +3391,98 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>As we work through these hard times, there is no doubt that if we do that, if we do it together, we will come out stronger.</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>Thank you.</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
         <v>0</v>
       </c>
     </row>

--- a/test_speeches/predictions/Coding_Differneces_150_AI.xlsx
+++ b/test_speeches/predictions/Coding_Differneces_150_AI.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Similie</t>
+          <t>Metaphor/Simile</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Stories/Anecdotes</t>
+          <t>Stories / anecdotes</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -466,27 +466,27 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Lists</t>
+          <t xml:space="preserve">Lists / Repetition </t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Repetition</t>
+          <t>Moral conviction</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Moral_conviction</t>
+          <t>Sentiment of the collective</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment_of_the_collective</t>
+          <t>Ambitious goals / Setting high expectations</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Setting_high_expectations</t>
+          <t>Confidence in goals</t>
         </is>
       </c>
     </row>
